--- a/subidas/import reg-estudiantes.xlsx
+++ b/subidas/import reg-estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Archivos de Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B41E8-B116-4BB9-BDB9-9B2DD675E76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB5E73-996F-4F41-9BF3-391DA514DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2760" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -66,22 +66,22 @@
     <t>TORRES</t>
   </si>
   <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
     <t>0801198012362</t>
   </si>
   <si>
     <t>CASAS</t>
   </si>
   <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
     <t>0801198012363</t>
   </si>
   <si>
-    <t>0801198012364</t>
+    <t>CAMILA</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
   </si>
 </sst>
 </file>
@@ -205,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I4" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:I4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombres"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellidos"/>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,16 +533,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -562,16 +562,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -586,35 +586,6 @@
         <v>22332060</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
-        <v>35707</v>
-      </c>
-      <c r="G4" s="7">
-        <v>20041004914</v>
-      </c>
-      <c r="H4" s="5">
-        <v>22332060</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -623,12 +594,11 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{92FDC81B-910B-49E4-BFD5-81D4ACAF2913}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{C3010029-7A3A-484F-A45B-1FF60906A07E}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{F3C9951E-6881-466E-A162-55703F627C3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>